--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2884,6 +2884,24 @@
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2891,27 +2909,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2963,33 +2963,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <border>
         <left style="thin">
@@ -3825,8 +3799,8 @@
   <dimension ref="A1:BN65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3854,29 +3828,29 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="I1" s="121"/>
-      <c r="K1" s="152" t="s">
+      <c r="K1" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="152"/>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="152"/>
-      <c r="Y1" s="152"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="152"/>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="152"/>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
@@ -3921,11 +3895,11 @@
       <c r="B4" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="157">
+      <c r="C4" s="160">
         <v>44355</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
       <c r="F4" s="100"/>
       <c r="G4" s="103" t="s">
         <v>69</v>
@@ -3935,182 +3909,182 @@
       </c>
       <c r="I4" s="101"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="154" t="str">
+      <c r="K4" s="152" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="154" t="str">
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="152" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="154" t="str">
+      <c r="S4" s="153"/>
+      <c r="T4" s="153"/>
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="154"/>
+      <c r="Y4" s="152" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="Z4" s="155"/>
-      <c r="AA4" s="155"/>
-      <c r="AB4" s="155"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="155"/>
-      <c r="AE4" s="156"/>
-      <c r="AF4" s="154" t="str">
+      <c r="Z4" s="153"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="153"/>
+      <c r="AC4" s="153"/>
+      <c r="AD4" s="153"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="152" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AG4" s="155"/>
-      <c r="AH4" s="155"/>
-      <c r="AI4" s="155"/>
-      <c r="AJ4" s="155"/>
-      <c r="AK4" s="155"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="154" t="str">
+      <c r="AG4" s="153"/>
+      <c r="AH4" s="153"/>
+      <c r="AI4" s="153"/>
+      <c r="AJ4" s="153"/>
+      <c r="AK4" s="153"/>
+      <c r="AL4" s="154"/>
+      <c r="AM4" s="152" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AN4" s="155"/>
-      <c r="AO4" s="155"/>
-      <c r="AP4" s="155"/>
-      <c r="AQ4" s="155"/>
-      <c r="AR4" s="155"/>
-      <c r="AS4" s="156"/>
-      <c r="AT4" s="154" t="str">
+      <c r="AN4" s="153"/>
+      <c r="AO4" s="153"/>
+      <c r="AP4" s="153"/>
+      <c r="AQ4" s="153"/>
+      <c r="AR4" s="153"/>
+      <c r="AS4" s="154"/>
+      <c r="AT4" s="152" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AU4" s="155"/>
-      <c r="AV4" s="155"/>
-      <c r="AW4" s="155"/>
-      <c r="AX4" s="155"/>
-      <c r="AY4" s="155"/>
-      <c r="AZ4" s="156"/>
-      <c r="BA4" s="154" t="str">
+      <c r="AU4" s="153"/>
+      <c r="AV4" s="153"/>
+      <c r="AW4" s="153"/>
+      <c r="AX4" s="153"/>
+      <c r="AY4" s="153"/>
+      <c r="AZ4" s="154"/>
+      <c r="BA4" s="152" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BB4" s="155"/>
-      <c r="BC4" s="155"/>
-      <c r="BD4" s="155"/>
-      <c r="BE4" s="155"/>
-      <c r="BF4" s="155"/>
-      <c r="BG4" s="156"/>
-      <c r="BH4" s="154" t="str">
+      <c r="BB4" s="153"/>
+      <c r="BC4" s="153"/>
+      <c r="BD4" s="153"/>
+      <c r="BE4" s="153"/>
+      <c r="BF4" s="153"/>
+      <c r="BG4" s="154"/>
+      <c r="BH4" s="152" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BI4" s="155"/>
-      <c r="BJ4" s="155"/>
-      <c r="BK4" s="155"/>
-      <c r="BL4" s="155"/>
-      <c r="BM4" s="155"/>
-      <c r="BN4" s="156"/>
+      <c r="BI4" s="153"/>
+      <c r="BJ4" s="153"/>
+      <c r="BK4" s="153"/>
+      <c r="BL4" s="153"/>
+      <c r="BM4" s="153"/>
+      <c r="BN4" s="154"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="99"/>
       <c r="B5" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
       <c r="F5" s="102"/>
       <c r="G5" s="102"/>
       <c r="H5" s="102"/>
       <c r="I5" s="102"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="158">
+      <c r="K5" s="155">
         <f>K6</f>
         <v>44361</v>
       </c>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="158">
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="157"/>
+      <c r="R5" s="155">
         <f>R6</f>
         <v>44368</v>
       </c>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="158">
+      <c r="S5" s="156"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
+      <c r="X5" s="157"/>
+      <c r="Y5" s="155">
         <f>Y6</f>
         <v>44375</v>
       </c>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="158">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="156"/>
+      <c r="AB5" s="156"/>
+      <c r="AC5" s="156"/>
+      <c r="AD5" s="156"/>
+      <c r="AE5" s="157"/>
+      <c r="AF5" s="155">
         <f>AF6</f>
         <v>44382</v>
       </c>
-      <c r="AG5" s="159"/>
-      <c r="AH5" s="159"/>
-      <c r="AI5" s="159"/>
-      <c r="AJ5" s="159"/>
-      <c r="AK5" s="159"/>
-      <c r="AL5" s="160"/>
-      <c r="AM5" s="158">
+      <c r="AG5" s="156"/>
+      <c r="AH5" s="156"/>
+      <c r="AI5" s="156"/>
+      <c r="AJ5" s="156"/>
+      <c r="AK5" s="156"/>
+      <c r="AL5" s="157"/>
+      <c r="AM5" s="155">
         <f>AM6</f>
         <v>44389</v>
       </c>
-      <c r="AN5" s="159"/>
-      <c r="AO5" s="159"/>
-      <c r="AP5" s="159"/>
-      <c r="AQ5" s="159"/>
-      <c r="AR5" s="159"/>
-      <c r="AS5" s="160"/>
-      <c r="AT5" s="158">
+      <c r="AN5" s="156"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="156"/>
+      <c r="AS5" s="157"/>
+      <c r="AT5" s="155">
         <f>AT6</f>
         <v>44396</v>
       </c>
-      <c r="AU5" s="159"/>
-      <c r="AV5" s="159"/>
-      <c r="AW5" s="159"/>
-      <c r="AX5" s="159"/>
-      <c r="AY5" s="159"/>
-      <c r="AZ5" s="160"/>
-      <c r="BA5" s="158">
+      <c r="AU5" s="156"/>
+      <c r="AV5" s="156"/>
+      <c r="AW5" s="156"/>
+      <c r="AX5" s="156"/>
+      <c r="AY5" s="156"/>
+      <c r="AZ5" s="157"/>
+      <c r="BA5" s="155">
         <f>BA6</f>
         <v>44403</v>
       </c>
-      <c r="BB5" s="159"/>
-      <c r="BC5" s="159"/>
-      <c r="BD5" s="159"/>
-      <c r="BE5" s="159"/>
-      <c r="BF5" s="159"/>
-      <c r="BG5" s="160"/>
-      <c r="BH5" s="158">
+      <c r="BB5" s="156"/>
+      <c r="BC5" s="156"/>
+      <c r="BD5" s="156"/>
+      <c r="BE5" s="156"/>
+      <c r="BF5" s="156"/>
+      <c r="BG5" s="157"/>
+      <c r="BH5" s="155">
         <f>BH6</f>
         <v>44410</v>
       </c>
-      <c r="BI5" s="159"/>
-      <c r="BJ5" s="159"/>
-      <c r="BK5" s="159"/>
-      <c r="BL5" s="159"/>
-      <c r="BM5" s="159"/>
-      <c r="BN5" s="160"/>
+      <c r="BI5" s="156"/>
+      <c r="BJ5" s="156"/>
+      <c r="BK5" s="156"/>
+      <c r="BL5" s="156"/>
+      <c r="BM5" s="156"/>
+      <c r="BN5" s="157"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
@@ -4767,7 +4741,7 @@
       <c r="BM9" s="96"/>
       <c r="BN9" s="96"/>
     </row>
-    <row r="10" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="str">
         <f t="shared" si="5"/>
         <v>1.2</v>
@@ -5508,7 +5482,7 @@
       <c r="BM18" s="98"/>
       <c r="BN18" s="98"/>
     </row>
-    <row r="19" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -5592,7 +5566,7 @@
       <c r="BM19" s="96"/>
       <c r="BN19" s="96"/>
     </row>
-    <row r="20" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -5780,7 +5754,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="59">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="60">
         <f t="shared" si="4"/>
@@ -6510,7 +6484,7 @@
       <c r="BM30" s="98"/>
       <c r="BN30" s="98"/>
     </row>
-    <row r="31" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -8169,6 +8143,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -8179,15 +8162,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H60:H65">
@@ -8205,20 +8179,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="12" priority="63">
+    <cfRule type="expression" dxfId="9" priority="63">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:BN35 K60:BN65">
-    <cfRule type="expression" dxfId="11" priority="66">
+    <cfRule type="expression" dxfId="8" priority="66">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="67">
+    <cfRule type="expression" dxfId="7" priority="67">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN35 K60:BN65">
-    <cfRule type="expression" dxfId="9" priority="26">
+    <cfRule type="expression" dxfId="6" priority="26">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
